--- a/biology/Botanique/Manseng_noir/Manseng_noir.xlsx
+++ b/biology/Botanique/Manseng_noir/Manseng_noir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le manseng noir N[N 1],[1] est un cépage noir français du Sud-Ouest.
+Le manseng noir N[N 1], est un cépage noir français du Sud-Ouest.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Origine et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il provient de l'ouest des Pyrénées, plus précisément du vignoble de Jurançon[2]. Il est voisin du Tannat auquel il pourrait être apparenté ; ils appartiennent tous les deux à la famille des Cotoïdes[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il provient de l'ouest des Pyrénées, plus précisément du vignoble de Jurançon. Il est voisin du Tannat auquel il pourrait être apparenté ; ils appartiennent tous les deux à la famille des Cotoïdes.
 Il n'est cultivé que dans les vignobles du piémont pyrénéen français. Un temps abandonné, il est à nouveau planté depuis une trentaine d'années grâce à la mode des « cépages oubliés ».
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau à très forte densité de poils couchés.
 Jeunes feuilles de couleur rougeâtre à plages bronzées.
@@ -577,7 +593,9 @@
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Culturales: il demande une taille longue en raison des yeux de la base peu fertiles, mais mal maîtrisé, il donne de gros rendements. Il est polyvalent sur des sols variés.
 Sensibilité: Plutôt rustique, il ne craint rien de particulier.
@@ -609,9 +627,11 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un seul clone est agréé, le no 897[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un seul clone est agréé, le no 897.
 </t>
         </is>
       </c>
@@ -640,9 +660,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le manseng noir est également connu avec les noms suivants[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le manseng noir est également connu avec les noms suivants :
 Areal
 Arrouya
 Caino Do Freixo
